--- a/מגנטיות/עיבוד נתונים.xlsx
+++ b/מגנטיות/עיבוד נתונים.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\מגנטיות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614B058-DDDC-4F53-8961-C2EC4C187518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFCDC1B-571D-4475-8665-66D3AF4B4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{B5536D0C-8F20-48BF-B86F-FC5202791078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{B5536D0C-8F20-48BF-B86F-FC5202791078}"/>
   </bookViews>
   <sheets>
     <sheet name="זווית קבועה נתונים" sheetId="1" r:id="rId1"/>
     <sheet name="fixed angle eddington" sheetId="2" r:id="rId2"/>
     <sheet name="מרחק קבוע נתונים" sheetId="3" r:id="rId3"/>
     <sheet name="fixed distance eddington" sheetId="4" r:id="rId4"/>
+    <sheet name="סיבוב מגנט עיבוד נתונים" sheetId="5" r:id="rId5"/>
+    <sheet name="rotating magnet eddington" sheetId="6" r:id="rId6"/>
+    <sheet name="חלק ב רק סלילים" sheetId="7" r:id="rId7"/>
+    <sheet name="only coils edington" sheetId="8" r:id="rId8"/>
+    <sheet name="חלק ב עם מגנט " sheetId="9" r:id="rId9"/>
+    <sheet name="coils and magnet eddington" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>B [mT]</t>
   </si>
@@ -88,12 +99,68 @@
   <si>
     <t>dθ [deg]</t>
   </si>
+  <si>
+    <t>T_0</t>
+  </si>
+  <si>
+    <t>T_10</t>
+  </si>
+  <si>
+    <r>
+      <t>Ԑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+  </si>
+  <si>
+    <t>dԐ_0</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>dT</t>
+  </si>
+  <si>
+    <t>dԐ_0_stat</t>
+  </si>
+  <si>
+    <t>dԐ_0_res</t>
+  </si>
+  <si>
+    <t>r [m]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +168,19 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,6 +221,564 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet8"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="I28">
+            <v>4.9199999999999994E-2</v>
+          </cell>
+          <cell r="J28">
+            <v>4.1472882706655359E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="I21">
+            <v>6.54E-2</v>
+          </cell>
+          <cell r="J21">
+            <v>5.549774770204648E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="21">
+          <cell r="H21">
+            <v>3.7600000000000001E-2</v>
+          </cell>
+          <cell r="I21">
+            <v>2.6076809620810619E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="21">
+          <cell r="H21">
+            <v>2.1599999999999998E-2</v>
+          </cell>
+          <cell r="I21">
+            <v>3.5777087639996626E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="21">
+          <cell r="H21">
+            <v>5.5699999999999993E-2</v>
+          </cell>
+          <cell r="I21">
+            <v>3.3466401061362942E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="27">
+          <cell r="H27">
+            <v>7.5200000000000017E-2</v>
+          </cell>
+          <cell r="I27">
+            <v>3.0331501776206229E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="27">
+          <cell r="H27">
+            <v>5.2000000000000005E-2</v>
+          </cell>
+          <cell r="I27">
+            <v>3.1622776601683864E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="4"/>
+      <sheetName val="5"/>
+      <sheetName val="6"/>
+      <sheetName val="7"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
+      <sheetName val="Sheet11"/>
+      <sheetName val="Sheet12"/>
+      <sheetName val="Sheet13"/>
+      <sheetName val="Sheet14"/>
+      <sheetName val="Sheet15"/>
+      <sheetName val="Sheet16"/>
+      <sheetName val="Sheet17"/>
+      <sheetName val="Sheet18"/>
+      <sheetName val="Sheet19"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>0.69211612903225794</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.0326952539961464E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>0.55241463414634151</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.3143894801144478E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="J3">
+            <v>0.46451285431773248</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>2.9337065173683226E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="J3">
+            <v>0.39373952762923342</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.8328585084734599E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="J3">
+            <v>0.33713264540337706</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.7537318973042486E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="J3">
+            <v>0.29453381642512078</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.60252327314008E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="J3">
+            <v>0.25706680161943318</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>2.3294969956079458E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="3">
+          <cell r="J3">
+            <v>0.22257754010695188</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.0468946302660939E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="3">
+          <cell r="J3">
+            <v>0.18627460317460318</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.3879245300497398E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="3">
+          <cell r="J3">
+            <v>0.16405427631578942</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>7.961817151519307E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="3">
+          <cell r="J3">
+            <v>0.14239802631578943</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>1.2412236672474119E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="J3">
+            <v>0.12361244019138759</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>6.8462464547987777E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="3">
+          <cell r="J3">
+            <v>0.1103551198257081</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5.9797489979335281E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="3">
+          <cell r="J3">
+            <v>9.87981292517007E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5.0586884675832462E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="3">
+          <cell r="J3">
+            <v>8.5576217843459229E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5.1436474540113351E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="3">
+          <cell r="J3">
+            <v>7.6184680298604354E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.8421533474124408E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="3">
+          <cell r="J3">
+            <v>6.7672930283224395E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5.0941339951536373E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="3">
+          <cell r="J3">
+            <v>6.1610011419870575E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.1887205165821984E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="18"/>
+      <sheetName val="17"/>
+      <sheetName val="16"/>
+      <sheetName val="15"/>
+      <sheetName val="14"/>
+      <sheetName val="13"/>
+      <sheetName val="12"/>
+      <sheetName val="11"/>
+      <sheetName val="10"/>
+      <sheetName val="9"/>
+      <sheetName val="8"/>
+      <sheetName val="7"/>
+      <sheetName val="6"/>
+      <sheetName val="5"/>
+      <sheetName val="4"/>
+      <sheetName val="3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>3.7125423728813574E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.9487689975629324E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>4.9013118664281482E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.1781098507066535E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="J3">
+            <v>5.9442134442134476E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.0875503314288591E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="J3">
+            <v>6.8612877583465841E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.5861622817328145E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="J3">
+            <v>6.6826923076923114E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.2306340732267759E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="J3">
+            <v>6.9398395721925153E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.0941595060722873E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="J3">
+            <v>8.1225490196078463E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.3694337228054604E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="3">
+          <cell r="J3">
+            <v>7.8688394276629596E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.8923146508642837E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="3">
+          <cell r="J3">
+            <v>9.8017316017316065E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.5802374749254567E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="3">
+          <cell r="J3">
+            <v>1.0968750000000006E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.5295098131183271E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="3">
+          <cell r="J3">
+            <v>1.3025705645161296E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.3606498961403272E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="J3">
+            <v>1.3984375000000007E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="3">
+          <cell r="J3">
+            <v>1.6112903225806458E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.7279744523075435E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="3">
+          <cell r="J3">
+            <v>1.7516129032258073E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.1838012609390918E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="3">
+          <cell r="J3">
+            <v>1.8022043010752695E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>4.5924356714693203E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="3">
+          <cell r="J3">
+            <v>2.2640625000000011E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3.5126216917124079E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BB0FC7-2E12-4A0F-9472-EE81A3C24B9F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,8 +1159,8 @@
         <v>-58.70430072748843</v>
       </c>
       <c r="I2">
-        <f>SQRT(G2^2+D2^2)/(1.25663706212*10^-6)</f>
-        <v>0.32619815721887868</v>
+        <f>SQRT(G2^2+D2^2)/(4*PI()*10^-7)</f>
+        <v>0.32619815739645303</v>
       </c>
       <c r="J2">
         <v>0.2</v>
@@ -562,8 +1201,8 @@
         <v>-48.705391433183408</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I22" si="5">SQRT(G3^2+D3^2)/(1.25663706212*10^-6)</f>
-        <v>0.32705425117522063</v>
+        <f t="shared" ref="I3:I22" si="5">SQRT(G3^2+D3^2)/(4*PI()*10^-7)</f>
+        <v>0.32705425135326099</v>
       </c>
       <c r="J3">
         <v>0.21</v>
@@ -605,7 +1244,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
-        <v>0.32704844238644804</v>
+        <v>0.32704844256448523</v>
       </c>
       <c r="J4">
         <v>0.22</v>
@@ -647,7 +1286,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
       <c r="J5">
         <v>0.23</v>
@@ -689,7 +1328,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>0.32593900841284384</v>
+        <v>0.32593900859027708</v>
       </c>
       <c r="J6">
         <v>0.24</v>
@@ -731,7 +1370,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>0.32620119052872593</v>
+        <v>0.32620119070630194</v>
       </c>
       <c r="J7">
         <v>0.25</v>
@@ -773,7 +1412,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>0.32703246768532035</v>
+        <v>0.32703246786334889</v>
       </c>
       <c r="J8">
         <v>0.26</v>
@@ -815,7 +1454,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>0.3264961361962328</v>
+        <v>0.32649613637396935</v>
       </c>
       <c r="J9">
         <v>0.27</v>
@@ -857,7 +1496,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
-        <v>0.32613894136053539</v>
+        <v>0.32613894153807749</v>
       </c>
       <c r="J10">
         <v>0.28000000000000003</v>
@@ -899,7 +1538,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.32651250078617916</v>
+        <v>0.32651250096392465</v>
       </c>
       <c r="J11">
         <v>0.28999999999999998</v>
@@ -941,7 +1580,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
-        <v>0.32584379383415374</v>
+        <v>0.32584379401153518</v>
       </c>
       <c r="J12">
         <v>0.3</v>
@@ -983,7 +1622,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
       <c r="J13">
         <v>0.31</v>
@@ -1025,7 +1664,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
-        <v>0.3270289579873405</v>
+        <v>0.32702895816536709</v>
       </c>
       <c r="J14">
         <v>0.32</v>
@@ -1067,7 +1706,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
       <c r="J15">
         <v>0.33</v>
@@ -1109,7 +1748,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
-        <v>0.32705606640055435</v>
+        <v>0.32705606657859571</v>
       </c>
       <c r="J16">
         <v>0.34</v>
@@ -1151,7 +1790,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
-        <v>0.32622145231502192</v>
+        <v>0.32622145249260892</v>
       </c>
       <c r="J17">
         <v>0.35</v>
@@ -1193,7 +1832,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
-        <v>0.32603613748303328</v>
+        <v>0.32603613766051942</v>
       </c>
       <c r="J18">
         <v>0.36</v>
@@ -1235,7 +1874,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
-        <v>0.32619815721887868</v>
+        <v>0.32619815739645303</v>
       </c>
       <c r="J19">
         <v>0.37</v>
@@ -1277,7 +1916,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>0.3270550982816301</v>
+        <v>0.32705509845967096</v>
       </c>
       <c r="J20">
         <v>0.38</v>
@@ -1319,7 +1958,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="5"/>
-        <v>0.32699761108310166</v>
+        <v>0.32699761126111115</v>
       </c>
       <c r="J21">
         <v>0.39</v>
@@ -1361,7 +2000,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
-        <v>0.32610981486281343</v>
+        <v>0.3261098150403397</v>
       </c>
       <c r="J22">
         <v>0.4</v>
@@ -1399,6 +2038,327 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55302CE0-86D5-43F5-B188-C0568F47E562}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'חלק ב עם מגנט '!A1</f>
+        <v>r [m]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'חלק ב עם מגנט '!B1</f>
+        <v>dr</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'חלק ב עם מגנט '!C1</f>
+        <v>Ԑ_0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'חלק ב עם מגנט '!D1</f>
+        <v>dԐ_0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'חלק ב עם מגנט '!A2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B2">
+        <f>'חלק ב עם מגנט '!B2</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C2">
+        <f>'חלק ב עם מגנט '!C2</f>
+        <v>2.2640625000000011E-2</v>
+      </c>
+      <c r="D2">
+        <f>'חלק ב עם מגנט '!D2</f>
+        <v>3.5126216917124079E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'חלק ב עם מגנט '!A3</f>
+        <v>0.04</v>
+      </c>
+      <c r="B3">
+        <f>'חלק ב עם מגנט '!B3</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C3">
+        <f>'חלק ב עם מגנט '!C3</f>
+        <v>1.8022043010752695E-2</v>
+      </c>
+      <c r="D3">
+        <f>'חלק ב עם מגנט '!D3</f>
+        <v>4.5924356714693203E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'חלק ב עם מגנט '!A4</f>
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <f>'חלק ב עם מגנט '!B4</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C4">
+        <f>'חלק ב עם מגנט '!C4</f>
+        <v>1.7516129032258073E-2</v>
+      </c>
+      <c r="D4">
+        <f>'חלק ב עם מגנט '!D4</f>
+        <v>3.1838012609390918E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'חלק ב עם מגנט '!A5</f>
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <f>'חלק ב עם מגנט '!B5</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C5">
+        <f>'חלק ב עם מגנט '!C5</f>
+        <v>1.6112903225806458E-2</v>
+      </c>
+      <c r="D5">
+        <f>'חלק ב עם מגנט '!D5</f>
+        <v>3.7279744523075435E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'חלק ב עם מגנט '!A6</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B6">
+        <f>'חלק ב עם מגנט '!B6</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C6">
+        <f>'חלק ב עם מגנט '!C6</f>
+        <v>1.3984375000000007E-2</v>
+      </c>
+      <c r="D6">
+        <f>'חלק ב עם מגנט '!D6</f>
+        <v>3.3606498961403272E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'חלק ב עם מגנט '!A7</f>
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <f>'חלק ב עם מגנט '!B7</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C7">
+        <f>'חלק ב עם מגנט '!C7</f>
+        <v>1.3025705645161296E-2</v>
+      </c>
+      <c r="D7">
+        <f>'חלק ב עם מגנט '!D7</f>
+        <v>3.3606498961403272E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'חלק ב עם מגנט '!A8</f>
+        <v>0.09</v>
+      </c>
+      <c r="B8">
+        <f>'חלק ב עם מגנט '!B8</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C8">
+        <f>'חלק ב עם מגנט '!C8</f>
+        <v>1.0968750000000006E-2</v>
+      </c>
+      <c r="D8">
+        <f>'חלק ב עם מגנט '!D8</f>
+        <v>4.5295098131183271E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'חלק ב עם מגנט '!A9</f>
+        <v>0.1</v>
+      </c>
+      <c r="B9">
+        <f>'חלק ב עם מגנט '!B9</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C9">
+        <f>'חלק ב עם מגנט '!C9</f>
+        <v>9.8017316017316065E-3</v>
+      </c>
+      <c r="D9">
+        <f>'חלק ב עם מגנט '!D9</f>
+        <v>4.5802374749254567E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'חלק ב עם מגנט '!A10</f>
+        <v>0.11</v>
+      </c>
+      <c r="B10">
+        <f>'חלק ב עם מגנט '!B10</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C10">
+        <f>'חלק ב עם מגנט '!C10</f>
+        <v>7.8688394276629596E-3</v>
+      </c>
+      <c r="D10">
+        <f>'חלק ב עם מגנט '!D10</f>
+        <v>4.8923146508642837E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'חלק ב עם מגנט '!A11</f>
+        <v>0.12</v>
+      </c>
+      <c r="B11">
+        <f>'חלק ב עם מגנט '!B11</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C11">
+        <f>'חלק ב עם מגנט '!C11</f>
+        <v>8.1225490196078463E-3</v>
+      </c>
+      <c r="D11">
+        <f>'חלק ב עם מגנט '!D11</f>
+        <v>4.3694337228054604E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'חלק ב עם מגנט '!A12</f>
+        <v>0.13</v>
+      </c>
+      <c r="B12">
+        <f>'חלק ב עם מגנט '!B12</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C12">
+        <f>'חלק ב עם מגנט '!C12</f>
+        <v>6.9398395721925153E-3</v>
+      </c>
+      <c r="D12">
+        <f>'חלק ב עם מגנט '!D12</f>
+        <v>4.0941595060722873E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'חלק ב עם מגנט '!A13</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B13">
+        <f>'חלק ב עם מגנט '!B13</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C13">
+        <f>'חלק ב עם מגנט '!C13</f>
+        <v>6.6826923076923114E-3</v>
+      </c>
+      <c r="D13">
+        <f>'חלק ב עם מגנט '!D13</f>
+        <v>4.2306340732267759E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'חלק ב עם מגנט '!A14</f>
+        <v>0.15</v>
+      </c>
+      <c r="B14">
+        <f>'חלק ב עם מגנט '!B14</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C14">
+        <f>'חלק ב עם מגנט '!C14</f>
+        <v>6.8612877583465841E-3</v>
+      </c>
+      <c r="D14">
+        <f>'חלק ב עם מגנט '!D14</f>
+        <v>3.5861622817328145E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'חלק ב עם מגנט '!A15</f>
+        <v>0.16</v>
+      </c>
+      <c r="B15">
+        <f>'חלק ב עם מגנט '!B15</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C15">
+        <f>'חלק ב עם מגנט '!C15</f>
+        <v>5.9442134442134476E-3</v>
+      </c>
+      <c r="D15">
+        <f>'חלק ב עם מגנט '!D15</f>
+        <v>4.0875503314288591E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'חלק ב עם מגנט '!A16</f>
+        <v>0.17</v>
+      </c>
+      <c r="B16">
+        <f>'חלק ב עם מגנט '!B16</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C16">
+        <f>'חלק ב עם מגנט '!C16</f>
+        <v>4.9013118664281482E-3</v>
+      </c>
+      <c r="D16">
+        <f>'חלק ב עם מגנט '!D16</f>
+        <v>4.1781098507066535E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'חלק ב עם מגנט '!A17</f>
+        <v>0.18</v>
+      </c>
+      <c r="B17">
+        <f>'חלק ב עם מגנט '!B17</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C17">
+        <f>'חלק ב עם מגנט '!C17</f>
+        <v>3.7125423728813574E-3</v>
+      </c>
+      <c r="D17">
+        <f>'חלק ב עם מגנט '!D17</f>
+        <v>3.9487689975629324E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1407,7 +2367,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,7 +2405,7 @@
       </c>
       <c r="D2">
         <f>'זווית קבועה נתונים'!I2</f>
-        <v>0.32619815721887868</v>
+        <v>0.32619815739645303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,7 +2423,7 @@
       </c>
       <c r="D3">
         <f>'זווית קבועה נתונים'!I3</f>
-        <v>0.32705425117522063</v>
+        <v>0.32705425135326099</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +2441,7 @@
       </c>
       <c r="D4">
         <f>'זווית קבועה נתונים'!I4</f>
-        <v>0.32704844238644804</v>
+        <v>0.32704844256448523</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,7 +2459,7 @@
       </c>
       <c r="D5">
         <f>'זווית קבועה נתונים'!I5</f>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,7 +2477,7 @@
       </c>
       <c r="D6">
         <f>'זווית קבועה נתונים'!I6</f>
-        <v>0.32593900841284384</v>
+        <v>0.32593900859027708</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +2495,7 @@
       </c>
       <c r="D7">
         <f>'זווית קבועה נתונים'!I7</f>
-        <v>0.32620119052872593</v>
+        <v>0.32620119070630194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,7 +2513,7 @@
       </c>
       <c r="D8">
         <f>'זווית קבועה נתונים'!I8</f>
-        <v>0.32703246768532035</v>
+        <v>0.32703246786334889</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,7 +2531,7 @@
       </c>
       <c r="D9">
         <f>'זווית קבועה נתונים'!I9</f>
-        <v>0.3264961361962328</v>
+        <v>0.32649613637396935</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,7 +2549,7 @@
       </c>
       <c r="D10">
         <f>'זווית קבועה נתונים'!I10</f>
-        <v>0.32613894136053539</v>
+        <v>0.32613894153807749</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +2567,7 @@
       </c>
       <c r="D11">
         <f>'זווית קבועה נתונים'!I11</f>
-        <v>0.32651250078617916</v>
+        <v>0.32651250096392465</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,7 +2585,7 @@
       </c>
       <c r="D12">
         <f>'זווית קבועה נתונים'!I12</f>
-        <v>0.32584379383415374</v>
+        <v>0.32584379401153518</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,7 +2603,7 @@
       </c>
       <c r="D13">
         <f>'זווית קבועה נתונים'!I13</f>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,7 +2621,7 @@
       </c>
       <c r="D14">
         <f>'זווית קבועה נתונים'!I14</f>
-        <v>0.3270289579873405</v>
+        <v>0.32702895816536709</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1679,7 +2639,7 @@
       </c>
       <c r="D15">
         <f>'זווית קבועה נתונים'!I15</f>
-        <v>0.32672879996469095</v>
+        <v>0.32672880014255418</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,7 +2657,7 @@
       </c>
       <c r="D16">
         <f>'זווית קבועה נתונים'!I16</f>
-        <v>0.32705606640055435</v>
+        <v>0.32705606657859571</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,7 +2675,7 @@
       </c>
       <c r="D17">
         <f>'זווית קבועה נתונים'!I17</f>
-        <v>0.32622145231502192</v>
+        <v>0.32622145249260892</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,7 +2693,7 @@
       </c>
       <c r="D18">
         <f>'זווית קבועה נתונים'!I18</f>
-        <v>0.32603613748303328</v>
+        <v>0.32603613766051942</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +2711,7 @@
       </c>
       <c r="D19">
         <f>'זווית קבועה נתונים'!I19</f>
-        <v>0.32619815721887868</v>
+        <v>0.32619815739645303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +2729,7 @@
       </c>
       <c r="D20">
         <f>'זווית קבועה נתונים'!I20</f>
-        <v>0.3270550982816301</v>
+        <v>0.32705509845967096</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,7 +2747,7 @@
       </c>
       <c r="D21">
         <f>'זווית קבועה נתונים'!I21</f>
-        <v>0.32699761108310166</v>
+        <v>0.32699761126111115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,7 +2765,7 @@
       </c>
       <c r="D22">
         <f>'זווית קבועה נתונים'!I22</f>
-        <v>0.32610981486281343</v>
+        <v>0.3261098150403397</v>
       </c>
     </row>
   </sheetData>
@@ -1817,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6723E7-1F46-44BA-B82B-08B774E84A26}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,8 +2851,8 @@
         <v>2.9039663967293654E-7</v>
       </c>
       <c r="H2">
-        <f>(C2-E2)/(1.25663706212*10^-6)</f>
-        <v>1.0464437502594672</v>
+        <f>(C2-E2)/(4*PI()*10^-7)</f>
+        <v>1.0464437508291256</v>
       </c>
       <c r="I2">
         <f>SQRT(G2^2+D2^2)/(1.25663706212*10^-6)</f>
@@ -1941,8 +2901,8 @@
         <v>2.9039663967293654E-7</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H19" si="4">(C3-E3)/(1.25663706212*10^-6)</f>
-        <v>-1.4403522341976582</v>
+        <f t="shared" ref="H3:H19" si="4">(C3-E3)/(4*PI()*10^-7)</f>
+        <v>-1.4403522349817508</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I19" si="5">SQRT(G3^2+D3^2)/(1.25663706212*10^-6)</f>
@@ -1992,7 +2952,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>-4.5040848870487942</v>
+        <v>-4.5040848895007084</v>
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
@@ -2042,7 +3002,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>-6.978944250780442</v>
+        <v>-6.9789442545796101</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
@@ -2092,7 +3052,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>-9.302606418657188</v>
+        <v>-9.3026064237213006</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
@@ -2142,7 +3102,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>-11.009543182388549</v>
+        <v>-11.009543188381878</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -2192,7 +3152,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>-13.074578567881725</v>
+        <v>-13.074578574999208</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -2242,7 +3202,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>-14.900881538867102</v>
+        <v>-14.900881546978781</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -2292,7 +3252,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>-15.449966092235149</v>
+        <v>-15.449966100645733</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
@@ -2342,7 +3302,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>-14.869050550265928</v>
+        <v>-14.869050558360277</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
@@ -2392,7 +3352,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>-14.264261766846094</v>
+        <v>-14.26426177461121</v>
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
@@ -2442,7 +3402,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>-13.022853211405071</v>
+        <v>-13.022853218494395</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
@@ -2492,7 +3452,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>-12.497641899487828</v>
+        <v>-12.497641906291239</v>
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
@@ -2542,7 +3502,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>-10.317219180315757</v>
+        <v>-10.317219185932201</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
@@ -2592,7 +3552,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>-7.9060217937861372</v>
+        <v>-7.9060217980899834</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
@@ -2642,7 +3602,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>-5.1526412797952155</v>
+        <v>-5.1526412826001886</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
@@ -2692,7 +3652,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>-2.2241903284985254</v>
+        <v>-2.2241903297093204</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
@@ -2742,7 +3702,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>-0.52123243834222421</v>
+        <v>-0.52123243862597046</v>
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
@@ -2806,7 +3766,7 @@
       </c>
       <c r="C2">
         <f>'מרחק קבוע נתונים'!H2</f>
-        <v>1.0464437502594672</v>
+        <v>1.0464437508291256</v>
       </c>
       <c r="D2">
         <f>'מרחק קבוע נתונים'!I2</f>
@@ -2824,7 +3784,7 @@
       </c>
       <c r="C3">
         <f>'מרחק קבוע נתונים'!H3</f>
-        <v>-1.4403522341976582</v>
+        <v>-1.4403522349817508</v>
       </c>
       <c r="D3">
         <f>'מרחק קבוע נתונים'!I3</f>
@@ -2842,7 +3802,7 @@
       </c>
       <c r="C4">
         <f>'מרחק קבוע נתונים'!H4</f>
-        <v>-4.5040848870487942</v>
+        <v>-4.5040848895007084</v>
       </c>
       <c r="D4">
         <f>'מרחק קבוע נתונים'!I4</f>
@@ -2860,7 +3820,7 @@
       </c>
       <c r="C5">
         <f>'מרחק קבוע נתונים'!H5</f>
-        <v>-6.978944250780442</v>
+        <v>-6.9789442545796101</v>
       </c>
       <c r="D5">
         <f>'מרחק קבוע נתונים'!I5</f>
@@ -2878,7 +3838,7 @@
       </c>
       <c r="C6">
         <f>'מרחק קבוע נתונים'!H6</f>
-        <v>-9.302606418657188</v>
+        <v>-9.3026064237213006</v>
       </c>
       <c r="D6">
         <f>'מרחק קבוע נתונים'!I6</f>
@@ -2896,7 +3856,7 @@
       </c>
       <c r="C7">
         <f>'מרחק קבוע נתונים'!H7</f>
-        <v>-11.009543182388549</v>
+        <v>-11.009543188381878</v>
       </c>
       <c r="D7">
         <f>'מרחק קבוע נתונים'!I7</f>
@@ -2914,7 +3874,7 @@
       </c>
       <c r="C8">
         <f>'מרחק קבוע נתונים'!H8</f>
-        <v>-13.074578567881725</v>
+        <v>-13.074578574999208</v>
       </c>
       <c r="D8">
         <f>'מרחק קבוע נתונים'!I8</f>
@@ -2932,7 +3892,7 @@
       </c>
       <c r="C9">
         <f>'מרחק קבוע נתונים'!H9</f>
-        <v>-14.900881538867102</v>
+        <v>-14.900881546978781</v>
       </c>
       <c r="D9">
         <f>'מרחק קבוע נתונים'!I9</f>
@@ -2950,7 +3910,7 @@
       </c>
       <c r="C10">
         <f>'מרחק קבוע נתונים'!H10</f>
-        <v>-15.449966092235149</v>
+        <v>-15.449966100645733</v>
       </c>
       <c r="D10">
         <f>'מרחק קבוע נתונים'!I10</f>
@@ -2968,7 +3928,7 @@
       </c>
       <c r="C11">
         <f>'מרחק קבוע נתונים'!H11</f>
-        <v>-14.869050550265928</v>
+        <v>-14.869050558360277</v>
       </c>
       <c r="D11">
         <f>'מרחק קבוע נתונים'!I11</f>
@@ -2986,7 +3946,7 @@
       </c>
       <c r="C12">
         <f>'מרחק קבוע נתונים'!H12</f>
-        <v>-14.264261766846094</v>
+        <v>-14.26426177461121</v>
       </c>
       <c r="D12">
         <f>'מרחק קבוע נתונים'!I12</f>
@@ -3004,7 +3964,7 @@
       </c>
       <c r="C13">
         <f>'מרחק קבוע נתונים'!H13</f>
-        <v>-13.022853211405071</v>
+        <v>-13.022853218494395</v>
       </c>
       <c r="D13">
         <f>'מרחק קבוע נתונים'!I13</f>
@@ -3022,7 +3982,7 @@
       </c>
       <c r="C14">
         <f>'מרחק קבוע נתונים'!H14</f>
-        <v>-12.497641899487828</v>
+        <v>-12.497641906291239</v>
       </c>
       <c r="D14">
         <f>'מרחק קבוע נתונים'!I14</f>
@@ -3040,7 +4000,7 @@
       </c>
       <c r="C15">
         <f>'מרחק קבוע נתונים'!H15</f>
-        <v>-10.317219180315757</v>
+        <v>-10.317219185932201</v>
       </c>
       <c r="D15">
         <f>'מרחק קבוע נתונים'!I15</f>
@@ -3058,7 +4018,7 @@
       </c>
       <c r="C16">
         <f>'מרחק קבוע נתונים'!H16</f>
-        <v>-7.9060217937861372</v>
+        <v>-7.9060217980899834</v>
       </c>
       <c r="D16">
         <f>'מרחק קבוע נתונים'!I16</f>
@@ -3076,7 +4036,7 @@
       </c>
       <c r="C17">
         <f>'מרחק קבוע נתונים'!H17</f>
-        <v>-5.1526412797952155</v>
+        <v>-5.1526412826001886</v>
       </c>
       <c r="D17">
         <f>'מרחק קבוע נתונים'!I17</f>
@@ -3094,7 +4054,7 @@
       </c>
       <c r="C18">
         <f>'מרחק קבוע נתונים'!H18</f>
-        <v>-2.2241903284985254</v>
+        <v>-2.2241903297093204</v>
       </c>
       <c r="D18">
         <f>'מרחק קבוע נתונים'!I18</f>
@@ -3112,11 +4072,1477 @@
       </c>
       <c r="C19">
         <f>'מרחק קבוע נתונים'!H19</f>
-        <v>-0.52123243834222421</v>
+        <v>-0.52123243862597046</v>
       </c>
       <c r="D19">
         <f>'מרחק קבוע נתונים'!I19</f>
         <v>0.32615993509777141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44399B2-05DA-4702-9344-16252C171371}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C2">
+        <f>(B2-A2)/10</f>
+        <v>0.192</v>
+      </c>
+      <c r="D2">
+        <f>(SQRT(2)/10)*(0.01/SQRT(12))</f>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E2">
+        <f>2*PI()/C2</f>
+        <v>32.724923474893679</v>
+      </c>
+      <c r="F2">
+        <f>D2*2*PI()/(C2^2)</f>
+        <v>6.9582781584302519E-2</v>
+      </c>
+      <c r="G2">
+        <f>[1]Sheet1!$I$28</f>
+        <v>4.9199999999999994E-2</v>
+      </c>
+      <c r="H2">
+        <f>[1]Sheet1!$J$28</f>
+        <v>4.1472882706655359E-4</v>
+      </c>
+      <c r="I2">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J2">
+        <f>SQRT(H2^2+I2^2)</f>
+        <v>5.0530518831032464E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>1.43</v>
+      </c>
+      <c r="C3">
+        <f>(B3-A3)/10</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D3">
+        <f>(SQRT(2)/10)*(0.01/SQRT(12))</f>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E3">
+        <f>2*PI()/C3</f>
+        <v>44.561597923259484</v>
+      </c>
+      <c r="F3">
+        <f>D3*2*PI()/(C3^2)</f>
+        <v>0.12902266789013273</v>
+      </c>
+      <c r="G3">
+        <f>[1]Sheet2!$I$21</f>
+        <v>6.54E-2</v>
+      </c>
+      <c r="H3">
+        <f>[1]Sheet2!$J$21</f>
+        <v>5.549774770204648E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="1">SQRT(H3^2+I3^2)</f>
+        <v>6.2556641001042723E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>2.69</v>
+      </c>
+      <c r="C4">
+        <f>(B4-A4)/10</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D4">
+        <f>(SQRT(2)/10)*(0.01/SQRT(12))</f>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E4">
+        <f>2*PI()/C4</f>
+        <v>23.53252924037298</v>
+      </c>
+      <c r="F4">
+        <f>D4*2*PI()/(C4^2)</f>
+        <v>3.5981703493157824E-2</v>
+      </c>
+      <c r="G4">
+        <f>[1]Sheet3!$H$21</f>
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <f>[1]Sheet3!$I$21</f>
+        <v>2.6076809620810619E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3.8901585229053772E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>1.77</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C7" si="2">(B5-A5)/10</f>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="3">(SQRT(2)/10)*(0.01/SQRT(12))</f>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="4">2*PI()/C5</f>
+        <v>36.110260386089578</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="5">D5*2*PI()/(C5^2)</f>
+        <v>8.4723862476011644E-2</v>
+      </c>
+      <c r="G5">
+        <f>[1]Sheet6!$H$21</f>
+        <v>5.5699999999999993E-2</v>
+      </c>
+      <c r="H5">
+        <f>[1]Sheet6!$I$21</f>
+        <v>3.3466401061362942E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.4196530783912534E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.09</v>
+      </c>
+      <c r="B6">
+        <v>1.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.126</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>49.866550056980842</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>0.16157090327058002</v>
+      </c>
+      <c r="G6">
+        <f>[1]Sheet7!$H$27</f>
+        <v>7.5200000000000017E-2</v>
+      </c>
+      <c r="H6">
+        <f>[1]Sheet7!$I$27</f>
+        <v>3.0331501776206229E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>4.1872823326512569E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0.185</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>4.0824829046386303E-4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>33.963163822592357</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>7.4948127401715955E-2</v>
+      </c>
+      <c r="G7">
+        <f>[1]Sheet8!$H$27</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="H7">
+        <f>[1]Sheet8!$I$27</f>
+        <v>3.1622776601683864E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.2817441928883816E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.42</v>
+      </c>
+      <c r="B8">
+        <v>4.88</v>
+      </c>
+      <c r="C8">
+        <f>(B8-A8)/9</f>
+        <v>0.49555555555555553</v>
+      </c>
+      <c r="D8">
+        <f>(SQRT(2)/9)*(0.01/SQRT(12))</f>
+        <v>4.5360921162651454E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>12.679073489824278</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>1.1605852190328359E-2</v>
+      </c>
+      <c r="G8">
+        <f>[1]Sheet5!$H$21</f>
+        <v>2.1599999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <f>[1]Sheet5!$I$21</f>
+        <v>3.5777087639996626E-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4.5971005354824825E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936033E-4560-4AF4-BA39-707013CA68B1}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'סיבוב מגנט עיבוד נתונים'!E1</f>
+        <v>ω</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'סיבוב מגנט עיבוד נתונים'!F1</f>
+        <v>dω</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'סיבוב מגנט עיבוד נתונים'!G1</f>
+        <v>Ԑ_0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'סיבוב מגנט עיבוד נתונים'!J1</f>
+        <v>dԐ_0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'סיבוב מגנט עיבוד נתונים'!E2</f>
+        <v>32.724923474893679</v>
+      </c>
+      <c r="B2">
+        <f>'סיבוב מגנט עיבוד נתונים'!F2</f>
+        <v>6.9582781584302519E-2</v>
+      </c>
+      <c r="C2">
+        <f>'סיבוב מגנט עיבוד נתונים'!G2</f>
+        <v>4.9199999999999994E-2</v>
+      </c>
+      <c r="D2">
+        <f>'סיבוב מגנט עיבוד נתונים'!J2</f>
+        <v>5.0530518831032464E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'סיבוב מגנט עיבוד נתונים'!E3</f>
+        <v>44.561597923259484</v>
+      </c>
+      <c r="B3">
+        <f>'סיבוב מגנט עיבוד נתונים'!F3</f>
+        <v>0.12902266789013273</v>
+      </c>
+      <c r="C3">
+        <f>'סיבוב מגנט עיבוד נתונים'!G3</f>
+        <v>6.54E-2</v>
+      </c>
+      <c r="D3">
+        <f>'סיבוב מגנט עיבוד נתונים'!J3</f>
+        <v>6.2556641001042723E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'סיבוב מגנט עיבוד נתונים'!E4</f>
+        <v>23.53252924037298</v>
+      </c>
+      <c r="B4">
+        <f>'סיבוב מגנט עיבוד נתונים'!F4</f>
+        <v>3.5981703493157824E-2</v>
+      </c>
+      <c r="C4">
+        <f>'סיבוב מגנט עיבוד נתונים'!G4</f>
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <f>'סיבוב מגנט עיבוד נתונים'!J4</f>
+        <v>3.8901585229053772E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'סיבוב מגנט עיבוד נתונים'!E5</f>
+        <v>36.110260386089578</v>
+      </c>
+      <c r="B5">
+        <f>'סיבוב מגנט עיבוד נתונים'!F5</f>
+        <v>8.4723862476011644E-2</v>
+      </c>
+      <c r="C5">
+        <f>'סיבוב מגנט עיבוד נתונים'!G5</f>
+        <v>5.5699999999999993E-2</v>
+      </c>
+      <c r="D5">
+        <f>'סיבוב מגנט עיבוד נתונים'!J5</f>
+        <v>4.4196530783912534E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'סיבוב מגנט עיבוד נתונים'!E6</f>
+        <v>49.866550056980842</v>
+      </c>
+      <c r="B6">
+        <f>'סיבוב מגנט עיבוד נתונים'!F6</f>
+        <v>0.16157090327058002</v>
+      </c>
+      <c r="C6">
+        <f>'סיבוב מגנט עיבוד נתונים'!G6</f>
+        <v>7.5200000000000017E-2</v>
+      </c>
+      <c r="D6">
+        <f>'סיבוב מגנט עיבוד נתונים'!J6</f>
+        <v>4.1872823326512569E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'סיבוב מגנט עיבוד נתונים'!E7</f>
+        <v>33.963163822592357</v>
+      </c>
+      <c r="B7">
+        <f>'סיבוב מגנט עיבוד נתונים'!F7</f>
+        <v>7.4948127401715955E-2</v>
+      </c>
+      <c r="C7">
+        <f>'סיבוב מגנט עיבוד נתונים'!G7</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D7">
+        <f>'סיבוב מגנט עיבוד נתונים'!J7</f>
+        <v>4.2817441928883816E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'סיבוב מגנט עיבוד נתונים'!E8</f>
+        <v>12.679073489824278</v>
+      </c>
+      <c r="B8">
+        <f>'סיבוב מגנט עיבוד נתונים'!F8</f>
+        <v>1.1605852190328359E-2</v>
+      </c>
+      <c r="C8">
+        <f>'סיבוב מגנט עיבוד נתונים'!G8</f>
+        <v>2.1599999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <f>'סיבוב מגנט עיבוד נתונים'!J8</f>
+        <v>4.5971005354824825E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5818788-E2CB-4AC0-AA67-0630D7C6558C}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.02</v>
+      </c>
+      <c r="B2">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C2">
+        <f>'[2]2'!$J$3</f>
+        <v>0.69211612903225794</v>
+      </c>
+      <c r="D2">
+        <f>'[2]2'!$J$4</f>
+        <v>4.0326952539961464E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B19" si="0">0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C3">
+        <f>'[2]3'!$J$3</f>
+        <v>0.55241463414634151</v>
+      </c>
+      <c r="D3">
+        <f>'[2]3'!$J$4</f>
+        <v>3.3143894801144478E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.04</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C4">
+        <f>'[2]4'!$J$3</f>
+        <v>0.46451285431773248</v>
+      </c>
+      <c r="D4">
+        <f>'[2]4'!$J$4</f>
+        <v>2.9337065173683226E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.05</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C5">
+        <f>'[2]5'!$J$3</f>
+        <v>0.39373952762923342</v>
+      </c>
+      <c r="D5">
+        <f>'[2]5'!$J$4</f>
+        <v>1.8328585084734599E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.06</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C6">
+        <f>'[2]6'!$J$3</f>
+        <v>0.33713264540337706</v>
+      </c>
+      <c r="D6">
+        <f>'[2]6'!$J$4</f>
+        <v>1.7537318973042486E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C7">
+        <f>'[2]7'!$J$3</f>
+        <v>0.29453381642512078</v>
+      </c>
+      <c r="D7">
+        <f>'[2]7'!$J$4</f>
+        <v>1.60252327314008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.08</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C8">
+        <f>[2]Sheet8!$J$3</f>
+        <v>0.25706680161943318</v>
+      </c>
+      <c r="D8">
+        <f>[2]Sheet8!$J$4</f>
+        <v>2.3294969956079458E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.09</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C9">
+        <f>[2]Sheet9!$J$3</f>
+        <v>0.22257754010695188</v>
+      </c>
+      <c r="D9">
+        <f>[2]Sheet9!$J$4</f>
+        <v>1.0468946302660939E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C10">
+        <f>[2]Sheet10!$J$3</f>
+        <v>0.18627460317460318</v>
+      </c>
+      <c r="D10">
+        <f>[2]Sheet10!$J$4</f>
+        <v>1.3879245300497398E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C11">
+        <f>[2]Sheet11!$J$3</f>
+        <v>0.16405427631578942</v>
+      </c>
+      <c r="D11">
+        <f>[2]Sheet11!$J$4</f>
+        <v>7.961817151519307E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C12">
+        <f>[2]Sheet12!$J$3</f>
+        <v>0.14239802631578943</v>
+      </c>
+      <c r="D12">
+        <f>[2]Sheet12!$J$4</f>
+        <v>1.2412236672474119E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C13">
+        <f>[2]Sheet13!$J$3</f>
+        <v>0.12361244019138759</v>
+      </c>
+      <c r="D13">
+        <f>[2]Sheet13!$J$4</f>
+        <v>6.8462464547987777E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C14">
+        <f>[2]Sheet14!$J$3</f>
+        <v>0.1103551198257081</v>
+      </c>
+      <c r="D14">
+        <f>[2]Sheet14!$J$4</f>
+        <v>5.9797489979335281E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C15">
+        <f>[2]Sheet15!$J$3</f>
+        <v>9.87981292517007E-2</v>
+      </c>
+      <c r="D15">
+        <f>[2]Sheet15!$J$4</f>
+        <v>5.0586884675832462E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C16">
+        <f>[2]Sheet16!$J$3</f>
+        <v>8.5576217843459229E-2</v>
+      </c>
+      <c r="D16">
+        <f>[2]Sheet16!$J$4</f>
+        <v>5.1436474540113351E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C17">
+        <f>[2]Sheet17!$J$3</f>
+        <v>7.6184680298604354E-2</v>
+      </c>
+      <c r="D17">
+        <f>[2]Sheet17!$J$4</f>
+        <v>4.8421533474124408E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C18">
+        <f>[2]Sheet18!$J$3</f>
+        <v>6.7672930283224395E-2</v>
+      </c>
+      <c r="D18">
+        <f>[2]Sheet18!$J$4</f>
+        <v>5.0941339951536373E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C19">
+        <f>[2]Sheet19!$J$3</f>
+        <v>6.1610011419870575E-2</v>
+      </c>
+      <c r="D19">
+        <f>[2]Sheet19!$J$4</f>
+        <v>4.1887205165821984E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8228A9-DDC2-4DCB-BA8D-431F5DE17F8F}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'חלק ב רק סלילים'!A1</f>
+        <v>r [m]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'חלק ב רק סלילים'!B1</f>
+        <v>dr</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'חלק ב רק סלילים'!C1</f>
+        <v>Ԑ_0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'חלק ב רק סלילים'!D1</f>
+        <v>dԐ_0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'חלק ב רק סלילים'!A2</f>
+        <v>0.02</v>
+      </c>
+      <c r="B2">
+        <f>'חלק ב רק סלילים'!B2</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C2">
+        <f>'חלק ב רק סלילים'!C2</f>
+        <v>0.69211612903225794</v>
+      </c>
+      <c r="D2">
+        <f>'חלק ב רק סלילים'!D2</f>
+        <v>4.0326952539961464E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'חלק ב רק סלילים'!A3</f>
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <f>'חלק ב רק סלילים'!B3</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C3">
+        <f>'חלק ב רק סלילים'!C3</f>
+        <v>0.55241463414634151</v>
+      </c>
+      <c r="D3">
+        <f>'חלק ב רק סלילים'!D3</f>
+        <v>3.3143894801144478E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'חלק ב רק סלילים'!A4</f>
+        <v>0.04</v>
+      </c>
+      <c r="B4">
+        <f>'חלק ב רק סלילים'!B4</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C4">
+        <f>'חלק ב רק סלילים'!C4</f>
+        <v>0.46451285431773248</v>
+      </c>
+      <c r="D4">
+        <f>'חלק ב רק סלילים'!D4</f>
+        <v>2.9337065173683226E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'חלק ב רק סלילים'!A5</f>
+        <v>0.05</v>
+      </c>
+      <c r="B5">
+        <f>'חלק ב רק סלילים'!B5</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C5">
+        <f>'חלק ב רק סלילים'!C5</f>
+        <v>0.39373952762923342</v>
+      </c>
+      <c r="D5">
+        <f>'חלק ב רק סלילים'!D5</f>
+        <v>1.8328585084734599E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'חלק ב רק סלילים'!A6</f>
+        <v>0.06</v>
+      </c>
+      <c r="B6">
+        <f>'חלק ב רק סלילים'!B6</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C6">
+        <f>'חלק ב רק סלילים'!C6</f>
+        <v>0.33713264540337706</v>
+      </c>
+      <c r="D6">
+        <f>'חלק ב רק סלילים'!D6</f>
+        <v>1.7537318973042486E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'חלק ב רק סלילים'!A7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B7">
+        <f>'חלק ב רק סלילים'!B7</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C7">
+        <f>'חלק ב רק סלילים'!C7</f>
+        <v>0.29453381642512078</v>
+      </c>
+      <c r="D7">
+        <f>'חלק ב רק סלילים'!D7</f>
+        <v>1.60252327314008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'חלק ב רק סלילים'!A8</f>
+        <v>0.08</v>
+      </c>
+      <c r="B8">
+        <f>'חלק ב רק סלילים'!B8</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C8">
+        <f>'חלק ב רק סלילים'!C8</f>
+        <v>0.25706680161943318</v>
+      </c>
+      <c r="D8">
+        <f>'חלק ב רק סלילים'!D8</f>
+        <v>2.3294969956079458E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'חלק ב רק סלילים'!A9</f>
+        <v>0.09</v>
+      </c>
+      <c r="B9">
+        <f>'חלק ב רק סלילים'!B9</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C9">
+        <f>'חלק ב רק סלילים'!C9</f>
+        <v>0.22257754010695188</v>
+      </c>
+      <c r="D9">
+        <f>'חלק ב רק סלילים'!D9</f>
+        <v>1.0468946302660939E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'חלק ב רק סלילים'!A10</f>
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <f>'חלק ב רק סלילים'!B10</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C10">
+        <f>'חלק ב רק סלילים'!C10</f>
+        <v>0.18627460317460318</v>
+      </c>
+      <c r="D10">
+        <f>'חלק ב רק סלילים'!D10</f>
+        <v>1.3879245300497398E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'חלק ב רק סלילים'!A11</f>
+        <v>0.11</v>
+      </c>
+      <c r="B11">
+        <f>'חלק ב רק סלילים'!B11</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C11">
+        <f>'חלק ב רק סלילים'!C11</f>
+        <v>0.16405427631578942</v>
+      </c>
+      <c r="D11">
+        <f>'חלק ב רק סלילים'!D11</f>
+        <v>7.961817151519307E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'חלק ב רק סלילים'!A12</f>
+        <v>0.12</v>
+      </c>
+      <c r="B12">
+        <f>'חלק ב רק סלילים'!B12</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C12">
+        <f>'חלק ב רק סלילים'!C12</f>
+        <v>0.14239802631578943</v>
+      </c>
+      <c r="D12">
+        <f>'חלק ב רק סלילים'!D12</f>
+        <v>1.2412236672474119E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'חלק ב רק סלילים'!A13</f>
+        <v>0.13</v>
+      </c>
+      <c r="B13">
+        <f>'חלק ב רק סלילים'!B13</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C13">
+        <f>'חלק ב רק סלילים'!C13</f>
+        <v>0.12361244019138759</v>
+      </c>
+      <c r="D13">
+        <f>'חלק ב רק סלילים'!D13</f>
+        <v>6.8462464547987777E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'חלק ב רק סלילים'!A14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B14">
+        <f>'חלק ב רק סלילים'!B14</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C14">
+        <f>'חלק ב רק סלילים'!C14</f>
+        <v>0.1103551198257081</v>
+      </c>
+      <c r="D14">
+        <f>'חלק ב רק סלילים'!D14</f>
+        <v>5.9797489979335281E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'חלק ב רק סלילים'!A15</f>
+        <v>0.15</v>
+      </c>
+      <c r="B15">
+        <f>'חלק ב רק סלילים'!B15</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C15">
+        <f>'חלק ב רק סלילים'!C15</f>
+        <v>9.87981292517007E-2</v>
+      </c>
+      <c r="D15">
+        <f>'חלק ב רק סלילים'!D15</f>
+        <v>5.0586884675832462E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'חלק ב רק סלילים'!A16</f>
+        <v>0.16</v>
+      </c>
+      <c r="B16">
+        <f>'חלק ב רק סלילים'!B16</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C16">
+        <f>'חלק ב רק סלילים'!C16</f>
+        <v>8.5576217843459229E-2</v>
+      </c>
+      <c r="D16">
+        <f>'חלק ב רק סלילים'!D16</f>
+        <v>5.1436474540113351E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'חלק ב רק סלילים'!A17</f>
+        <v>0.17</v>
+      </c>
+      <c r="B17">
+        <f>'חלק ב רק סלילים'!B17</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C17">
+        <f>'חלק ב רק סלילים'!C17</f>
+        <v>7.6184680298604354E-2</v>
+      </c>
+      <c r="D17">
+        <f>'חלק ב רק סלילים'!D17</f>
+        <v>4.8421533474124408E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'חלק ב רק סלילים'!A18</f>
+        <v>0.18</v>
+      </c>
+      <c r="B18">
+        <f>'חלק ב רק סלילים'!B18</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C18">
+        <f>'חלק ב רק סלילים'!C18</f>
+        <v>6.7672930283224395E-2</v>
+      </c>
+      <c r="D18">
+        <f>'חלק ב רק סלילים'!D18</f>
+        <v>5.0941339951536373E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'חלק ב רק סלילים'!A19</f>
+        <v>0.19</v>
+      </c>
+      <c r="B19">
+        <f>'חלק ב רק סלילים'!B19</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C19">
+        <f>'חלק ב רק סלילים'!C19</f>
+        <v>6.1610011419870575E-2</v>
+      </c>
+      <c r="D19">
+        <f>'חלק ב רק סלילים'!D19</f>
+        <v>4.1887205165821984E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE32B342-7A2D-4B28-AFD5-2C0FC3D67469}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'חלק ב רק סלילים'!A1</f>
+        <v>r [m]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'חלק ב רק סלילים'!B1</f>
+        <v>dr</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.03</v>
+      </c>
+      <c r="B2">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C2">
+        <f>'[3]3'!$J$3</f>
+        <v>2.2640625000000011E-2</v>
+      </c>
+      <c r="D2">
+        <f>'[3]3'!$J$4</f>
+        <v>3.5126216917124079E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.04</v>
+      </c>
+      <c r="B3">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C3">
+        <f>'[3]4'!$J$3</f>
+        <v>1.8022043010752695E-2</v>
+      </c>
+      <c r="D3">
+        <f>'[3]4'!$J$4</f>
+        <v>4.5924356714693203E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C4">
+        <f>'[3]5'!$J$3</f>
+        <v>1.7516129032258073E-2</v>
+      </c>
+      <c r="D4">
+        <f>'[3]5'!$J$4</f>
+        <v>3.1838012609390918E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C5">
+        <f>'[3]6'!$J$3</f>
+        <v>1.6112903225806458E-2</v>
+      </c>
+      <c r="D5">
+        <f>'[3]6'!$J$4</f>
+        <v>3.7279744523075435E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B6">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C6">
+        <f>'[3]7'!$J$3</f>
+        <v>1.3984375000000007E-2</v>
+      </c>
+      <c r="D6">
+        <f>'[3]8'!$J$4</f>
+        <v>3.3606498961403272E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C7">
+        <f>'[3]8'!$J$3</f>
+        <v>1.3025705645161296E-2</v>
+      </c>
+      <c r="D7">
+        <f>'[3]8'!$J$4</f>
+        <v>3.3606498961403272E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.09</v>
+      </c>
+      <c r="B8">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C8">
+        <f>'[3]9'!$J$3</f>
+        <v>1.0968750000000006E-2</v>
+      </c>
+      <c r="D8">
+        <f>'[3]9'!$J$4</f>
+        <v>4.5295098131183271E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.1</v>
+      </c>
+      <c r="B9">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C9">
+        <f>'[3]10'!$J$3</f>
+        <v>9.8017316017316065E-3</v>
+      </c>
+      <c r="D9">
+        <f>'[3]10'!$J$4</f>
+        <v>4.5802374749254567E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.11</v>
+      </c>
+      <c r="B10">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C10">
+        <f>'[3]11'!$J$3</f>
+        <v>7.8688394276629596E-3</v>
+      </c>
+      <c r="D10">
+        <f>'[3]11'!$J$4</f>
+        <v>4.8923146508642837E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.12</v>
+      </c>
+      <c r="B11">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C11">
+        <f>'[3]12'!$J$3</f>
+        <v>8.1225490196078463E-3</v>
+      </c>
+      <c r="D11">
+        <f>'[3]12'!$J$4</f>
+        <v>4.3694337228054604E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.13</v>
+      </c>
+      <c r="B12">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C12">
+        <f>'[3]13'!$J$3</f>
+        <v>6.9398395721925153E-3</v>
+      </c>
+      <c r="D12">
+        <f>'[3]13'!$J$4</f>
+        <v>4.0941595060722873E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C13">
+        <f>'[3]14'!$J$3</f>
+        <v>6.6826923076923114E-3</v>
+      </c>
+      <c r="D13">
+        <f>'[3]14'!$J$4</f>
+        <v>4.2306340732267759E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.15</v>
+      </c>
+      <c r="B14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C14">
+        <f>'[3]15'!$J$3</f>
+        <v>6.8612877583465841E-3</v>
+      </c>
+      <c r="D14">
+        <f>'[3]15'!$J$4</f>
+        <v>3.5861622817328145E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.16</v>
+      </c>
+      <c r="B15">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C15">
+        <f>'[3]16'!$J$3</f>
+        <v>5.9442134442134476E-3</v>
+      </c>
+      <c r="D15">
+        <f>'[3]16'!$J$4</f>
+        <v>4.0875503314288591E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.17</v>
+      </c>
+      <c r="B16">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C16">
+        <f>'[3]17'!$J$3</f>
+        <v>4.9013118664281482E-3</v>
+      </c>
+      <c r="D16">
+        <f>'[3]17'!$J$4</f>
+        <v>4.1781098507066535E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.18</v>
+      </c>
+      <c r="B17">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="C17">
+        <f>'[3]18'!$J$3</f>
+        <v>3.7125423728813574E-3</v>
+      </c>
+      <c r="D17">
+        <f>'[3]18'!$J$4</f>
+        <v>3.9487689975629324E-4</v>
       </c>
     </row>
   </sheetData>

--- a/מגנטיות/עיבוד נתונים.xlsx
+++ b/מגנטיות/עיבוד נתונים.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\מגנטיות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFCDC1B-571D-4475-8665-66D3AF4B4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C711645-2C10-4EB1-BC47-F0744C33B98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{B5536D0C-8F20-48BF-B86F-FC5202791078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{B5536D0C-8F20-48BF-B86F-FC5202791078}"/>
   </bookViews>
   <sheets>
     <sheet name="זווית קבועה נתונים" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="21">
           <cell r="H21">
@@ -346,192 +346,192 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>0.69211612903225794</v>
+            <v>0.73128571428571432</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>4.0326952539961464E-3</v>
+            <v>3.8460783980594763E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
-            <v>0.55241463414634151</v>
+            <v>0.58125274725274712</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>3.3143894801144478E-3</v>
+            <v>8.8030675033729129E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="J3">
-            <v>0.46451285431773248</v>
+            <v>0.49260454545454546</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>2.9337065173683226E-3</v>
+            <v>2.3193739170069286E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="J3">
-            <v>0.39373952762923342</v>
+            <v>0.4134166666666666</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.8328585084734599E-3</v>
+            <v>6.6362151752223891E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="J3">
-            <v>0.33713264540337706</v>
+            <v>0.36249999999999993</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.7537318973042486E-3</v>
+            <v>5.8275630096262161E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="3">
           <cell r="J3">
-            <v>0.29453381642512078</v>
+            <v>0.30659523809523809</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.60252327314008E-3</v>
+            <v>2.9310637773076654E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="J3">
-            <v>0.25706680161943318</v>
+            <v>0.26114444444444446</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>2.3294969956079458E-3</v>
+            <v>4.4170296457724163E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="J3">
-            <v>0.22257754010695188</v>
+            <v>0.2262986111111111</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.0468946302660939E-3</v>
+            <v>2.3193098717152195E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
           <cell r="J3">
-            <v>0.18627460317460318</v>
+            <v>0.19321428571428573</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.3879245300497398E-3</v>
+            <v>3.056500637406005E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="3">
           <cell r="J3">
-            <v>0.16405427631578942</v>
+            <v>0.17142857142857143</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>7.961817151519307E-4</v>
+            <v>2.4021168183376764E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
           <cell r="J3">
-            <v>0.14239802631578943</v>
+            <v>0.15239999999999998</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1.2412236672474119E-3</v>
+            <v>3.1493679554028819E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="3">
           <cell r="J3">
-            <v>0.12361244019138759</v>
+            <v>0.13170000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>6.8462464547987777E-4</v>
+            <v>2.316606713852541E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="3">
           <cell r="J3">
-            <v>0.1103551198257081</v>
+            <v>0.11560714285714287</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>5.9797489979335281E-4</v>
+            <v>2.3273080960115562E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="3">
           <cell r="J3">
-            <v>9.87981292517007E-2</v>
+            <v>0.10304444444444447</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>5.0586884675832462E-4</v>
+            <v>2.9983763324508453E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="3">
           <cell r="J3">
-            <v>8.5576217843459229E-2</v>
+            <v>9.1642857142857137E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>5.1436474540113351E-4</v>
+            <v>2.4322700926691733E-4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="3">
           <cell r="J3">
-            <v>7.6184680298604354E-2</v>
+            <v>8.224999999999999E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>4.8421533474124408E-4</v>
+            <v>2.572558173405523E-4</v>
           </cell>
         </row>
       </sheetData>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BB0FC7-2E12-4A0F-9472-EE81A3C24B9F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55302CE0-86D5-43F5-B188-C0568F47E562}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,7 +2778,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3733,7 +3733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866A71DA-6D38-4E45-BE77-1A9B2CBF1B61}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4089,7 +4091,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,7 +4419,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4576,7 +4578,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4605,11 +4607,11 @@
       </c>
       <c r="C2">
         <f>'[2]2'!$J$3</f>
-        <v>0.69211612903225794</v>
+        <v>0.73128571428571432</v>
       </c>
       <c r="D2">
         <f>'[2]2'!$J$4</f>
-        <v>4.0326952539961464E-3</v>
+        <v>3.8460783980594763E-4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4622,11 +4624,11 @@
       </c>
       <c r="C3">
         <f>'[2]3'!$J$3</f>
-        <v>0.55241463414634151</v>
+        <v>0.58125274725274712</v>
       </c>
       <c r="D3">
         <f>'[2]3'!$J$4</f>
-        <v>3.3143894801144478E-3</v>
+        <v>8.8030675033729129E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,11 +4641,11 @@
       </c>
       <c r="C4">
         <f>'[2]4'!$J$3</f>
-        <v>0.46451285431773248</v>
+        <v>0.49260454545454546</v>
       </c>
       <c r="D4">
         <f>'[2]4'!$J$4</f>
-        <v>2.9337065173683226E-3</v>
+        <v>2.3193739170069286E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,11 +4658,11 @@
       </c>
       <c r="C5">
         <f>'[2]5'!$J$3</f>
-        <v>0.39373952762923342</v>
+        <v>0.4134166666666666</v>
       </c>
       <c r="D5">
         <f>'[2]5'!$J$4</f>
-        <v>1.8328585084734599E-3</v>
+        <v>6.6362151752223891E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4673,11 +4675,11 @@
       </c>
       <c r="C6">
         <f>'[2]6'!$J$3</f>
-        <v>0.33713264540337706</v>
+        <v>0.36249999999999993</v>
       </c>
       <c r="D6">
         <f>'[2]6'!$J$4</f>
-        <v>1.7537318973042486E-3</v>
+        <v>5.8275630096262161E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4690,11 +4692,11 @@
       </c>
       <c r="C7">
         <f>'[2]7'!$J$3</f>
-        <v>0.29453381642512078</v>
+        <v>0.30659523809523809</v>
       </c>
       <c r="D7">
         <f>'[2]7'!$J$4</f>
-        <v>1.60252327314008E-3</v>
+        <v>2.9310637773076654E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,11 +4709,11 @@
       </c>
       <c r="C8">
         <f>[2]Sheet8!$J$3</f>
-        <v>0.25706680161943318</v>
+        <v>0.26114444444444446</v>
       </c>
       <c r="D8">
         <f>[2]Sheet8!$J$4</f>
-        <v>2.3294969956079458E-3</v>
+        <v>4.4170296457724163E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,11 +4726,11 @@
       </c>
       <c r="C9">
         <f>[2]Sheet9!$J$3</f>
-        <v>0.22257754010695188</v>
+        <v>0.2262986111111111</v>
       </c>
       <c r="D9">
         <f>[2]Sheet9!$J$4</f>
-        <v>1.0468946302660939E-3</v>
+        <v>2.3193098717152195E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4741,11 +4743,11 @@
       </c>
       <c r="C10">
         <f>[2]Sheet10!$J$3</f>
-        <v>0.18627460317460318</v>
+        <v>0.19321428571428573</v>
       </c>
       <c r="D10">
         <f>[2]Sheet10!$J$4</f>
-        <v>1.3879245300497398E-3</v>
+        <v>3.056500637406005E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,11 +4760,11 @@
       </c>
       <c r="C11">
         <f>[2]Sheet11!$J$3</f>
-        <v>0.16405427631578942</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="D11">
         <f>[2]Sheet11!$J$4</f>
-        <v>7.961817151519307E-4</v>
+        <v>2.4021168183376764E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4775,11 +4777,11 @@
       </c>
       <c r="C12">
         <f>[2]Sheet12!$J$3</f>
-        <v>0.14239802631578943</v>
+        <v>0.15239999999999998</v>
       </c>
       <c r="D12">
         <f>[2]Sheet12!$J$4</f>
-        <v>1.2412236672474119E-3</v>
+        <v>3.1493679554028819E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4792,11 +4794,11 @@
       </c>
       <c r="C13">
         <f>[2]Sheet13!$J$3</f>
-        <v>0.12361244019138759</v>
+        <v>0.13170000000000001</v>
       </c>
       <c r="D13">
         <f>[2]Sheet13!$J$4</f>
-        <v>6.8462464547987777E-4</v>
+        <v>2.316606713852541E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4809,11 +4811,11 @@
       </c>
       <c r="C14">
         <f>[2]Sheet14!$J$3</f>
-        <v>0.1103551198257081</v>
+        <v>0.11560714285714287</v>
       </c>
       <c r="D14">
         <f>[2]Sheet14!$J$4</f>
-        <v>5.9797489979335281E-4</v>
+        <v>2.3273080960115562E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4826,11 +4828,11 @@
       </c>
       <c r="C15">
         <f>[2]Sheet15!$J$3</f>
-        <v>9.87981292517007E-2</v>
+        <v>0.10304444444444447</v>
       </c>
       <c r="D15">
         <f>[2]Sheet15!$J$4</f>
-        <v>5.0586884675832462E-4</v>
+        <v>2.9983763324508453E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4843,11 +4845,11 @@
       </c>
       <c r="C16">
         <f>[2]Sheet16!$J$3</f>
-        <v>8.5576217843459229E-2</v>
+        <v>9.1642857142857137E-2</v>
       </c>
       <c r="D16">
         <f>[2]Sheet16!$J$4</f>
-        <v>5.1436474540113351E-4</v>
+        <v>2.4322700926691733E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4860,11 +4862,11 @@
       </c>
       <c r="C17">
         <f>[2]Sheet17!$J$3</f>
-        <v>7.6184680298604354E-2</v>
+        <v>8.224999999999999E-2</v>
       </c>
       <c r="D17">
         <f>[2]Sheet17!$J$4</f>
-        <v>4.8421533474124408E-4</v>
+        <v>2.572558173405523E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,7 +4913,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,11 +4947,11 @@
       </c>
       <c r="C2">
         <f>'חלק ב רק סלילים'!C2</f>
-        <v>0.69211612903225794</v>
+        <v>0.73128571428571432</v>
       </c>
       <c r="D2">
         <f>'חלק ב רק סלילים'!D2</f>
-        <v>4.0326952539961464E-3</v>
+        <v>3.8460783980594763E-4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4963,11 +4965,11 @@
       </c>
       <c r="C3">
         <f>'חלק ב רק סלילים'!C3</f>
-        <v>0.55241463414634151</v>
+        <v>0.58125274725274712</v>
       </c>
       <c r="D3">
         <f>'חלק ב רק סלילים'!D3</f>
-        <v>3.3143894801144478E-3</v>
+        <v>8.8030675033729129E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4981,11 +4983,11 @@
       </c>
       <c r="C4">
         <f>'חלק ב רק סלילים'!C4</f>
-        <v>0.46451285431773248</v>
+        <v>0.49260454545454546</v>
       </c>
       <c r="D4">
         <f>'חלק ב רק סלילים'!D4</f>
-        <v>2.9337065173683226E-3</v>
+        <v>2.3193739170069286E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4999,11 +5001,11 @@
       </c>
       <c r="C5">
         <f>'חלק ב רק סלילים'!C5</f>
-        <v>0.39373952762923342</v>
+        <v>0.4134166666666666</v>
       </c>
       <c r="D5">
         <f>'חלק ב רק סלילים'!D5</f>
-        <v>1.8328585084734599E-3</v>
+        <v>6.6362151752223891E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,11 +5019,11 @@
       </c>
       <c r="C6">
         <f>'חלק ב רק סלילים'!C6</f>
-        <v>0.33713264540337706</v>
+        <v>0.36249999999999993</v>
       </c>
       <c r="D6">
         <f>'חלק ב רק סלילים'!D6</f>
-        <v>1.7537318973042486E-3</v>
+        <v>5.8275630096262161E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5035,11 +5037,11 @@
       </c>
       <c r="C7">
         <f>'חלק ב רק סלילים'!C7</f>
-        <v>0.29453381642512078</v>
+        <v>0.30659523809523809</v>
       </c>
       <c r="D7">
         <f>'חלק ב רק סלילים'!D7</f>
-        <v>1.60252327314008E-3</v>
+        <v>2.9310637773076654E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -5053,11 +5055,11 @@
       </c>
       <c r="C8">
         <f>'חלק ב רק סלילים'!C8</f>
-        <v>0.25706680161943318</v>
+        <v>0.26114444444444446</v>
       </c>
       <c r="D8">
         <f>'חלק ב רק סלילים'!D8</f>
-        <v>2.3294969956079458E-3</v>
+        <v>4.4170296457724163E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5071,11 +5073,11 @@
       </c>
       <c r="C9">
         <f>'חלק ב רק סלילים'!C9</f>
-        <v>0.22257754010695188</v>
+        <v>0.2262986111111111</v>
       </c>
       <c r="D9">
         <f>'חלק ב רק סלילים'!D9</f>
-        <v>1.0468946302660939E-3</v>
+        <v>2.3193098717152195E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5089,11 +5091,11 @@
       </c>
       <c r="C10">
         <f>'חלק ב רק סלילים'!C10</f>
-        <v>0.18627460317460318</v>
+        <v>0.19321428571428573</v>
       </c>
       <c r="D10">
         <f>'חלק ב רק סלילים'!D10</f>
-        <v>1.3879245300497398E-3</v>
+        <v>3.056500637406005E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -5107,11 +5109,11 @@
       </c>
       <c r="C11">
         <f>'חלק ב רק סלילים'!C11</f>
-        <v>0.16405427631578942</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="D11">
         <f>'חלק ב רק סלילים'!D11</f>
-        <v>7.961817151519307E-4</v>
+        <v>2.4021168183376764E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -5125,11 +5127,11 @@
       </c>
       <c r="C12">
         <f>'חלק ב רק סלילים'!C12</f>
-        <v>0.14239802631578943</v>
+        <v>0.15239999999999998</v>
       </c>
       <c r="D12">
         <f>'חלק ב רק סלילים'!D12</f>
-        <v>1.2412236672474119E-3</v>
+        <v>3.1493679554028819E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5143,11 +5145,11 @@
       </c>
       <c r="C13">
         <f>'חלק ב רק סלילים'!C13</f>
-        <v>0.12361244019138759</v>
+        <v>0.13170000000000001</v>
       </c>
       <c r="D13">
         <f>'חלק ב רק סלילים'!D13</f>
-        <v>6.8462464547987777E-4</v>
+        <v>2.316606713852541E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -5161,11 +5163,11 @@
       </c>
       <c r="C14">
         <f>'חלק ב רק סלילים'!C14</f>
-        <v>0.1103551198257081</v>
+        <v>0.11560714285714287</v>
       </c>
       <c r="D14">
         <f>'חלק ב רק סלילים'!D14</f>
-        <v>5.9797489979335281E-4</v>
+        <v>2.3273080960115562E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -5179,11 +5181,11 @@
       </c>
       <c r="C15">
         <f>'חלק ב רק סלילים'!C15</f>
-        <v>9.87981292517007E-2</v>
+        <v>0.10304444444444447</v>
       </c>
       <c r="D15">
         <f>'חלק ב רק סלילים'!D15</f>
-        <v>5.0586884675832462E-4</v>
+        <v>2.9983763324508453E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5197,11 +5199,11 @@
       </c>
       <c r="C16">
         <f>'חלק ב רק סלילים'!C16</f>
-        <v>8.5576217843459229E-2</v>
+        <v>9.1642857142857137E-2</v>
       </c>
       <c r="D16">
         <f>'חלק ב רק סלילים'!D16</f>
-        <v>5.1436474540113351E-4</v>
+        <v>2.4322700926691733E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5215,11 +5217,11 @@
       </c>
       <c r="C17">
         <f>'חלק ב רק סלילים'!C17</f>
-        <v>7.6184680298604354E-2</v>
+        <v>8.224999999999999E-2</v>
       </c>
       <c r="D17">
         <f>'חלק ב רק סלילים'!D17</f>
-        <v>4.8421533474124408E-4</v>
+        <v>2.572558173405523E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5267,7 +5269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE32B342-7A2D-4B28-AFD5-2C0FC3D67469}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
